--- a/users guide.xlsx
+++ b/users guide.xlsx
@@ -225,40 +225,40 @@
     <t>Go to welcome.blade.php</t>
   </si>
   <si>
+    <t xml:space="preserve">In .env file set paypal details </t>
+  </si>
+  <si>
+    <t>PAYPAL_MODE=sandbox</t>
+  </si>
+  <si>
+    <t>PAYPAL_CURRENCY=INR</t>
+  </si>
+  <si>
+    <t>PAYPAL_SANDBOX_API_CERTIFICATE=</t>
+  </si>
+  <si>
+    <t>All done</t>
+  </si>
+  <si>
+    <t>You can run the project</t>
+  </si>
+  <si>
     <t xml:space="preserve"> &lt;div class="flex-center position-ref full-height"&gt;
             &lt;div class="content"&gt;
-                &lt;h1&gt;Laravel 5.8 PayPal Integration Tutorial - ItSolutionStuff.com&lt;/h1&gt;
+                &lt;h1&gt;Laravel 5.8 PayPal Integration&lt;/h1&gt;
                 &lt;table border="0" cellpadding="10" cellspacing="0" align="center"&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td align="center"&gt;&lt;a href="https://www.paypal.com/in/webapps/mpp/paypal-popup" title="How PayPal Works" onclick="javascript:window.open('https://www.paypal.com/in/webapps/mpp/paypal-popup','WIPaypal','toolbar=no, location=no, directories=no, status=no, menubar=no, scrollbars=yes, resizable=yes, width=1060, height=700'); return false;"&gt;&lt;img src="https://www.paypalobjects.com/webstatic/mktg/Logo/pp-logo-200px.png" border="0" alt="PayPal Logo"&gt;&lt;/a&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
                 &lt;a href="{{ route('payment') }}" class="btn btn-success"&gt;Pay $100 from Paypal&lt;/a&gt;
             &lt;/div&gt;
         &lt;/div&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">In .env file set paypal details </t>
-  </si>
-  <si>
-    <t>PAYPAL_MODE=sandbox</t>
-  </si>
-  <si>
-    <t>PAYPAL_SANDBOX_API_USERNAME=sb-e2n47..</t>
-  </si>
-  <si>
-    <t>PAYPAL_SANDBOX_API_PASSWORD=XKCGW...</t>
-  </si>
-  <si>
-    <t>PAYPAL_SANDBOX_API_SECRET=A0EXIz....</t>
-  </si>
-  <si>
-    <t>PAYPAL_CURRENCY=INR</t>
-  </si>
-  <si>
-    <t>PAYPAL_SANDBOX_API_CERTIFICATE=</t>
-  </si>
-  <si>
-    <t>All done</t>
-  </si>
-  <si>
-    <t>You can run the project</t>
+    <t>PAYPAL_SANDBOX_API_USERNAME=</t>
+  </si>
+  <si>
+    <t>PAYPAL_SANDBOX_API_PASSWORD=</t>
+  </si>
+  <si>
+    <t>PAYPAL_SANDBOX_API_SECRET=</t>
   </si>
 </sst>
 </file>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1337,7 +1337,7 @@
         <v>68</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E85" s="1"/>
     </row>
@@ -1352,10 +1352,10 @@
         <v>13</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E87" s="1"/>
     </row>
@@ -1363,7 +1363,7 @@
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E88" s="1"/>
     </row>
@@ -1371,7 +1371,7 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E89" s="1"/>
     </row>
@@ -1379,7 +1379,7 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E90" s="1"/>
     </row>
@@ -1387,7 +1387,7 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E91" s="1"/>
     </row>
@@ -1395,7 +1395,7 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E92" s="1"/>
     </row>
@@ -1410,10 +1410,10 @@
         <v>14</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E94" s="1"/>
     </row>
